--- a/data/out/people.xlsx
+++ b/data/out/people.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,23 +421,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
@@ -446,51 +452,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>Ahmed</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SPB</t>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Cairo</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Alexandria</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Mohamed</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fatima</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Luxor</t>
         </is>
       </c>
     </row>
